--- a/biology/Botanique/Salix_atrocinerea/Salix_atrocinerea.xlsx
+++ b/biology/Botanique/Salix_atrocinerea/Salix_atrocinerea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix atrocinerea, le Saule roux ou Saule à feuilles d'Olivier, est une espèce de plantes à fleurs de la famille des Salicaceae. C'est un saule trouvé en Europe et en Asie.
 </t>
@@ -511,10 +523,12 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Salix acuminata Thuill., non Mill.
-Salix cinerea var. atrocinerea (Brot.) O. Bolòs &amp; Vigo[2].</t>
+Salix cinerea var. atrocinerea (Brot.) O. Bolòs &amp; Vigo.</t>
         </is>
       </c>
     </row>
@@ -542,11 +556,13 @@
           <t>Taxonomíe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix atrocinerea a été décrit par Felix de Avelar Brotero et publié dans  Flora Lusitanica 1: 31. 1804[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix atrocinerea a été décrit par Felix de Avelar Brotero et publié dans  Flora Lusitanica 1: 31. 1804.
 Cytologie
-Chromosomes de Salix atrocinerea (Fam. Salicaceae) et taxons infraspécífiques : 2n=76[4].
+Chromosomes de Salix atrocinerea (Fam. Salicaceae) et taxons infraspécífiques : 2n=76.
 Étymologie
 Salix: nom générique venant du nom latin ancien du saule.
 atrocinerea, épithète venant de l'adjectif latin cinereus (cendré) et le préfixe atro (sombre), en référence à l'aspect de feutre gris couvrant les feuilles et les jeunes rameaux.
@@ -578,7 +594,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son implantation est majoritairement atlantique, de l'ouest de l'Europe et l'Afrique du Nord aux îles de la mer Méditerranée. Poussant naturellement en France, Grande-Bretagne, Belgique, Espagne, Portugal, Maroc, Tunisie, il est très commun dans la péninsule ibérique et on le trouve en Corse.
 </t>
@@ -609,7 +627,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un buisson ou un arbre qui atteint jusqu'à 12 m de haut. Espèce pionnière, il colonise rapidement les sols pauvres.
 Ses grandes facultés d'hybridation  ont multiplié les espèces parentes. 
